--- a/Warehouse/testing/BB/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/BB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The discussion did not result in a decision about which movie to show on Friday.
+MSG: The decision regarding which movie to acquire was not reached.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie can be made.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process regarding the movie to be shown on Friday ended without arriving at a conclusion. Therefore, no movie rights will be acquired.
+MSG: The decision has been recorded as "no decision," indicating that no consensus was achieved regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached.
+MSG: The decision regarding the movie to show on Friday resulted in no conclusion, and therefore, the conversation about the movie acquisition has ended without a choice.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on which movie to show on Friday, so no acquisition is needed at this time.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie for Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the outcome is that no decision was made regarding the movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has resulted in no conclusion.
+MSG: The decision-making process concluded without a definitive choice for Friday's movie, so I have noted that no decision was made.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
